--- a/orthofinder_1/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/orthofinder_1/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Jul07/Orthogroups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/orthofinder_1/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="256" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57442EB5-C813-4325-B4AF-5FCD31A5690D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="14832" windowHeight="12360" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -17727,10 +17727,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18169,8 +18165,8 @@
   <dimension ref="A1:AT472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT13" sqref="AT13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
